--- a/biology/Histoire de la zoologie et de la botanique/Ernst_Ferdinand_Nolte/Ernst_Ferdinand_Nolte.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_Ferdinand_Nolte/Ernst_Ferdinand_Nolte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Ferdinand Nolte (24 décembre 1791, Hambourg – 18 février 1875, Kiel), est un botaniste allemand. Il est le beau-fils du chimiste Christoph Heinrich Pfaff (1773-1852).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à l'Université de Göttingen. Il participe également à cette époque à plusieurs excursions botaniques dans le nord de l'Allemagne. Il finit ses études en 1817. Il est influencé par les travaux du botaniste danois Jens Wilken Hornemann.
 De 1821 à 1823, il étudie la flore de l'arrondissement du duché de Lauenbourg et prend part à plusieurs expéditions à Seeland (Danemark), sur l'île de Fionie, et dans le Jutland. De 1826 à 1873, il est professeur de botanique à l'Université de Kiel et dirige son jardin botanique. Il a parmi ses élèves Ferdinand von Müller.
@@ -543,9 +557,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Noltea, de la famille des rhamnaceae, a été nommée en son honneur[1], tout comme la Zostera noltei, une espèce poussant dans les herbiers marins[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Noltea, de la famille des rhamnaceae, a été nommée en son honneur, tout comme la Zostera noltei, une espèce poussant dans les herbiers marins.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il participe à la rédaction du Flora Danica, et est l'auteur des publications suivantes :
 Botanische Bemerkungen über Stratiotes und Sagittaria, 1825
 Novitiæ floræ Holsaticæ : sive supplementum alterum Primitiarum floræ Holsaticæ G. H. Weberi, 1826
-Index seminum horti botanici Kiliensis, c. 1836–41[3].</t>
+Index seminum horti botanici Kiliensis, c. 1836–41.</t>
         </is>
       </c>
     </row>
